--- a/plan/test/service/単体テスト仕様書-OderService.xlsx
+++ b/plan/test/service/単体テスト仕様書-OderService.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86019F92-CFB1-43C5-AA8B-3BC6F748B1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBB40A-ECE9-4CE5-9BB6-AF1CA88FA4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="130" yWindow="70" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -410,19 +410,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +440,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -442,21 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -828,25 +828,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,23 +859,23 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -913,20 +913,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -936,33 +936,33 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -971,34 +971,34 @@
       <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1014,14 +1014,14 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -1037,27 +1037,35 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1069,14 +1077,6 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-OderService.xlsx
+++ b/plan/test/service/単体テスト仕様書-OderService.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBB40A-ECE9-4CE5-9BB6-AF1CA88FA4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B11A6B9-D485-4341-9B11-D0C49C6CFF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="70" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>作成者</t>
   </si>
@@ -189,6 +189,13 @@
   <si>
     <t>orderStatusUpdate
 (productId : Integer)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -416,47 +423,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -810,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -823,30 +830,31 @@
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="19" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,26 +864,28 @@
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -913,20 +923,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="27" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -936,10 +946,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -948,11 +958,11 @@
       <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -961,8 +971,8 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -971,11 +981,11 @@
       <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -984,8 +994,8 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
@@ -1040,32 +1050,24 @@
       <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H9:L9"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1077,6 +1079,14 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-OderService.xlsx
+++ b/plan/test/service/単体テスト仕様書-OderService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B11A6B9-D485-4341-9B11-D0C49C6CFF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB4E6D-D1DB-4061-B20B-28B3BFAAFD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>作成者</t>
   </si>
@@ -156,45 +156,178 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>舘川・高良</t>
-    <rPh sb="0" eb="2">
-      <t>タテカワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タカラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>byProduct
-(productId:Integer , 
-numberId:Integer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>getOrderList
-(customerId : Integer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cancelOder(order : Integer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>getOrderList
-(oderDate : String,
-customerId : Integer )</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>orderStatusUpdate
-(productId : Integer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updateStatus(OrderForm):void</t>
+  </si>
+  <si>
+    <t>getOrderStatusList():List&lt;orderStatus&gt;</t>
+  </si>
+  <si>
+    <t>getOrderList():List&lt;Order&gt;</t>
+  </si>
+  <si>
+    <t>getPayMethodList():List&lt;PaymentMethod&gt;</t>
+  </si>
+  <si>
+    <t>registerOrder(OrderForm,List&lt;OrderDetail&gt;):void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrderForm{
+        -orderId: null
+        -orderDate: String
+        -amountTotal: 50000
+        -orderStatusId: 1
+        -paymentMethodId: 1
+        -customerId: 1
+}
+List&lt;OrderDetailForm&gt;{
+[OrderDetailForm{
+      -orderDetailId:null
+      -orderId:null
+      -productId:1
+      -count:5
+      -customerId:1
+    }]
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ordersテーブル、order_detailテーブルに一行ずつデータが追加されていること。Product_stockテーブルの在庫量が5減っていること</t>
+    <rPh sb="28" eb="30">
+      <t>イチギョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ザイコリョウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>deleteOrder():void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sessionAttributeのorderFormListから一つ削除されていること</t>
+    <rPh sb="32" eb="33">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrderForm{
+        -orderId: 1
+        -orderDate: String
+        -amountTotal: 50000
+        -orderStatusId: 1
+        -paymentMethodId: 1
+        -customerId: 1
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orderId=1のstatusが更新されていること</t>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4件のステータスが取得できていること</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインユーザーのorderの一覧が得られること</t>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト法未定</t>
+    <rPh sb="3" eb="4">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getStockByOrderDetailForm(orderForm:OrderDetailForm)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrderDetailForm{
+      -orderDetailId:null
+      -orderId:null
+      -productId:1
+      -count:5
+      -customerId:1
+      -stock:null
+    }</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stockにproductId=1の在庫量が代入されていること</t>
+    <rPh sb="18" eb="21">
+      <t>ザイコリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1件の支払い方法が得られていること</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>古市</t>
+    <rPh sb="0" eb="2">
+      <t>フルイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -367,7 +500,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +538,30 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -414,21 +571,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,15 +581,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,15 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -815,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="131" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -836,61 +960,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="12">
-        <v>45496</v>
+        <v>45504</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
@@ -923,20 +1047,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -946,74 +1070,86 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:17" ht="55" customHeight="1">
+    <row r="5" spans="1:17" ht="196" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="B5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" ht="60" customHeight="1">
+    <row r="7" spans="1:17" ht="100.5" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1024,19 +1160,23 @@
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1047,15 +1187,19 @@
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="27"/>
+      <c r="B9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
@@ -1063,15 +1207,84 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" ht="89.5" customHeight="1">
+      <c r="A10" s="11">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" ht="42" customHeight="1">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="27">
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -1079,14 +1292,7 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
